--- a/resultados_ollama_gemma3_270m_zeroshot.xlsx
+++ b/resultados_ollama_gemma3_270m_zeroshot.xlsx
@@ -509,203 +509,77 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>```python
+          <t xml:space="preserve">```python
 import re
 def classify_incident(incident_description):
     """
-    Classifies an incident description based on the provided input.
+    Classifies an incident description based on the provided categories.
     Args:
         incident_description: The incident description to classify.
     Returns:
-        A string indicating the category of the incident.
+        A string representing the category of the incident.
     """
     try:
-        category = None
         if "account compromise" in incident_description:
-            category = "Account Compromise"
+            return "CAT1: Account Compromise"
         elif "malware" in incident_description:
-            category = "Malware"
+            return "CAT2: Malware"
         elif "ransomware" in incident_description:
-            category = "Ransomware"
-        elif "trojan horse" in incident_description:
-            category = "Trojan Horse"
+            return "CAT3: Denial of Service Attack"
         elif "data leak" in incident_description:
-            category = "Data Leak"
+            return "CAT4: Data Leak"
         elif "database theft" in incident_description:
-            category = "Database Theft"
+            return "CAT5: Vulnerability Exploitation"
+        elif "third-party issues" in incident_description:
+            return "CAT6: Insider Abuse"
         elif "intrusion attempt" in incident_description:
-            category = "Intrusion Attempt"
-        elif "scam" in incident_description:
-            category = "Scam"
-        elif "user" in incident_description:
-            category = "User"
-        elif "access" in incident_description:
-            category = "Access"
-        elif "password" in incident_description:
-            category = "Password"
-        elif "credential phishing" in incident_description:
-            category = "Phishing"
-        elif "SSH brute force" in incident_description:
-            category = "SSH Brute Force"
-        elif "OAuth token theft" in incident_description:
-            category = "OAuth Token Theft"
-        elif "account compromise" in incident_description:
-            category = "Account Compromise"
-        elif "credential theft" in incident_description:
-            category = "Credential Theft"
-        elif "sensitive information" in incident_description:
-            category = "Sensitive Information"
+            return "CAT7: Social Engineering"
+        elif "physical incident" in incident_description:
+            return "CAT8: Physical Incident"
+        elif "equipment theft" in incident_description:
+            return "CAT9: Unauthorized Modification"
+        elif "misuse of resources" in incident_description:
+            return "CAT10: Misuse of Resources"
+        elif "cryptocurrency mining" in incident_description:
+            return "CAT11: Third-Party Issues"
+        elif "spam campaigns" in incident_description:
+            return "CAT12: Intrusion Attempt"
+        elif "malware hosting" in incident_description:
+            return "CAT13: Third-Party Issues"
+        elif "security flaw" in incident_description:
+            return "CAT14: Security Incident"
+        elif "rootkit" in incident_description:
+            return "CAT15: Insider Abuse"
+        elif "network scans" in incident_description:
+            return "CAT16: Physical Incident"
+        elif "brute force attempts" in incident_description:
+            return "CAT17: Social Engineering"
+        elif "SQL injection" in incident_description:
+            return "CAT18: SQL Injection"
+        elif "injection" in incident_description:
+            return "CAT19: Injection"
+        elif "rce" in incident_description:
+            return "CAT20: RCE"
+        elif "security flaw" in incident_description:
+            return "CAT21: Security Incident"
+        elif "security breach" in incident_description:
+            return "CAT22: Intrusion Attempt"
+        elif "malware hosting" in incident_description:
+            return "CAT23: Third-Party Issues"
+        elif "malware" in incident_description:
+            return "CAT24: Malware"
         elif "data exfiltration" in incident_description:
-            category = "Data Exfiltration"
+            return "CAT25: Data Leak"
         elif "unauthorized disclosure" in incident_description:
-            category = "Unauthorized Disclosure"
-        elif "misuse of resources" in incident_description:
-            category = "Misuse of Resources"
-        elif "crypto mining" in incident_description:
-            category = "Crypto Mining"
-        elif "spam campaigns" in incident_description:
-            category = "Spam Campaigns"
-        elif "malware hosting" in incident_description:
-            category = "Malware Hosting"
-        elif "supply chain compromise" in incident_description:
-            category = "Supply Chain Compromise"
-        elif "third party" in incident_description:
-            category = "Third Party"
-        elif "vendor" in incident_description:
-            category = "Vendor"
-        elif "supply chain" in incident_description:
-            category = "Supply Chain"
-        elif "saas issue" in incident_description:
-            category = "Saas Issue"
-        elif "security flaw" in incident_description:
-            category = "Security Flaw"
-        elif "insider" in incident_description:
-            category = "Insider"
-        elif "employee" in incident_description:
-            category = "Employee"
-        elif "internal leak" in incident_description:
-            category = "Internal Leak"
-        elif "sabotage" in incident_description:
-            category = "Sabotage"
-        elif "intentional action" in incident_description:
-            category = "Intentional Action"
-        elif "staff" in incident_description:
-            category = "Staff"
-        elif "physical breach" in incident_description:
-            category = "Physical Breach"
-        elif "equipment theft" in incident_description:
-            category = "Equipment Theft"
-        elif "data center break-in" in incident_description:
-            category = "Data Center Break-In"
-        elif "broken door" in incident_description:
-            category = "Broken Door"
-        elif "physical breach" in incident_description:
-            category = "Physical Breach"
-        elif "physical access" in incident_description:
-            category = "Physical Access"
-        elif "equipment" in incident_description:
-            category = "Equipment"
-        elif "burglary" in incident_description:
-            category = "Burglary"
-        elif "unauthorized entry" in incident_description:
-            category = "Unauthorized Entry"
-        elif "broken door" in incident_description:
-            category = "Broken Door"
-        elif "physical breach" in incident_description:
-            category = "Physical Breach"
-        elif "data center break-in" in incident_description:
-            category = "Data Center Break-In"
-        elif "network scan" in incident_description:
-            category = "Network Scan"
-        elif "intrusion attempt" in incident_description:
-            category = "Intrusion Attempt"
-        elif "blocked exploit" in incident_description:
-            category = "Blocked Exploitation"
-        elif "failed attempt" in incident_description:
-            category = "Failed Attempt"
-        elif "rootkit" in incident_description:
-            category = "Rootkit"
-        elif "infection" in incident_description:
-            category = "Infection"
-        elif "malicious code" in incident_description:
-            category = "Malicious Code"
-        elif "security flaw" in incident_description:
-            category = "Security Flaw"
-        elif "SQL injection" in incident_description:
-            category = "SQL Injection"
-        elif "injection" in incident_description:
-            category = "Injection"
-        elif "rce" in incident_description:
-            category = "RCE"
-        elif "security breach" in incident_description:
-            category = "Security Breach"
-        elif "security flaw" in incident_description:
-            category = "Security Flaw"
-        elif "malware" in incident_description:
-            category = "Malware"
-        elif "vulnerability" in incident_description:
-            category = "Vulnerability"
-        elif "cve" in incident_description:
-            category = "Cve"
-        elif "remote execution" in incident_description:
-            category = "Remote Execution"
-        elif "penetration testing" in incident_description:
-            category = "Penetration Testing"
-        elif "testing" in incident_description:
-            category = "Testing"
-        elif "software" in incident_description:
-            category = "Software"
-        elif "hardware" in incident_description:
-            category = "Hardware"
-        elif "hardware failure" in incident_description:
-            category = "Hardware Failure"
-        elif "hardware malfunction" in incident_description:
-            category = "Hardware Malfunction"
-        elif "software malfunction" in incident_description:
-            category = "Software Malfunction"
-        elif "system crash" in incident_description:
-            category = "System Crash"
-        elif "error" in incident_description:
-            category = "Error"
-        elif "system error" in incident_description:
-            category = "System Error"
-        elif "system failure" in incident_description:
-            category = "System Failure"
-        elif "system outage" in incident_description:
-            category = "System Outage"
-        elif "network failure" in incident_description:
-            category = "Network Failure"
-        elif "network outage" in incident_description:
-            category = "Network Outage"
-        elif "internet connection" in incident_description:
-            category = "Internet Connection"
-        elif "connection refused" in incident_description:
-            category = "Connection Refused"
-        elif "connection refused" in "connection refused" in incident_description:
-            category = "Connection Refused"
-        elif "connection refused" in incident_description:
-            category = "Connection Refused"
-        elif "connection refused" in "connection refused" in incident_description:
-            category = "Connection Refused"
-        elif "connection refused" in incident_description:
-            category = "Connection Refused"
-        elif "connection refused" in "connection refused" in incident_description:
-            category = "Connection Refused"
-        elif "connection refused" in incident_description:
-            category = "Connection Refused"
-        elif "connection refused" in "connection refused" in incident_description:
-            category = "Connection Refused"
-        elif "connection refused" in incident_description:
-            category = "Connection Refused"
-        elif "connection refused" in "connection refused" in incident_description:
-            category = "Connection Refused"
-        elif "connection refused" in incident_description:
-            category = "Connection Refused"
-        elif "connection refused" in "connection refused" in incident_description:
-            category = "Connection Refused"
-        elif "connection refused" in incident_description:
-            category = "Connection Refused"
-        elif "connection refused" in "</t>
+            return "CAT26: Unauthorized Modification"
+        else:
+            return "CAT27: Unknown"
+    except Exception as e:
+        return f"An error occurred: {e}"
+```
+**Explanation of the classification:**
+The code classifies the incident description based on the provided categories.  It handles potential errors and returns a string indicating the category.  The `try...except` block catches any exceptions that might occur during the classification process.  The `if` conditions ensure that the classification is only performed if the input description is valid.
+</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -896,7 +770,12 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Okay, I understand. I will classify the provided incident description into one of the predefined categories (CAT1–CAT12) and provide a concise justification for my choice.
+</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
@@ -921,61 +800,66 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t xml:space="preserve">Okay, I'm ready. Please provide the incident description. I will classify it according to the predefined categories and provide a concise justification for my choice.
+</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RNP2022-111244</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Okay, I understand. I will classify the provided incident description into one of the predefined categories (CAT1–CAT12) and provide a concise justification for my choice.
+</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RNP2023-040700</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t xml:space="preserve">Okay, I'm ready to classify the incident description. Please provide the incident description.
 </t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>RNP2022-111244</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Okay, I understand. I will classify the provided incident description into one of the predefined categories (CAT1–CAT12) and provide a concise justification for my choice.
-</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>RNP2023-040700</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
           <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
@@ -1023,9 +907,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Okay, I have classified the incident description as **CAT1: Account Compromise**.
-**Justification:**
-*   **CAT1: Account Compromise:** This is the most critical and likely cause of the incident.  The description clearly states that the target system is being compromised, and the attacker is attempting to gain unauthorized access to the user's account or administrator accounts.  The attack is likely a DDoS attack, as the attacker is sending a large number of requests to the target system, potentially overwhelming its resources and causing significant downtime.  The description emphasizes the risk of data loss, system disruption, and potential financial losses.
+          <t xml:space="preserve">Okay, I understand. I will classify the provided incident description into one of the predefined categories (CAT1–CAT12) and provide a concise justification for my choice.
 </t>
         </is>
       </c>
@@ -1053,7 +935,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>```python
+          <t xml:space="preserve">```python
 import re
 def classify_incident(incident_description):
   """
@@ -1066,73 +948,83 @@
   try:
     category = None
     if "account compromise" in incident_description:
-      category = "account compromise"
+      category = "Account Compromise"
     elif "malware" in incident_description:
-      category = "malware"
+      category = "Malware"
     elif "ransomware" in incident_description:
-      category = "ransomware"
+      category = "Ransomware"
     elif "trojan horse" in incident_description:
-      category = "trojan horse"
+      category = "Trojan Horse"
     elif "data leak" in incident_description:
-      category = "data leak"
+      category = "Data Leak"
+    elif "database theft" in incident_description:
+      category = "Database Theft"
     elif "exposed data" in incident_description:
-      category = "exposed data"
-    elif "database theft" in incident_description:
-      category = "database theft"
+      category = "Exposed Data"
     elif "data exfiltration" in incident_description:
-      category = "data exfiltration"
+      category = "Data Exfiltration"
     elif "unauthorized disclosure" in incident_description:
-      category = "unauthorized disclosure"
+      category = "Unauthorized Disclosure"
     elif "scam" in incident_description:
-      category = "scam"
-    elif "user" in incident_description:
-      category = "user"
-    elif "internal abuse" in incident_description:
-      category = "internal abuse"
+      category = "Scam"
+    elif "insider" in incident_description:
+      category = "Insider Abuse"
     elif "employee" in incident_description:
-      category = "employee"
+      category = "Employee"
     elif "internal leak" in incident_description:
-      category = "internal leak"
+      category = "Internal Leak"
     elif "sabotage" in incident_description:
-      category = "sabotage"
+      category = "Sabotage"
     elif "intentional action" in incident_description:
-      category = "intentional action"
+      category = "Intentional Action"
     elif "staff" in incident_description:
-      category = "staff"
-    elif "security flaw" in incident_description:
-      category = "security flaw"
+      category = "Staff"
     else:
       category = "Unknown"
   except Exception as e:
-    return "An error occurred during classification."
+    print(f"An error occurred: {e}")
+    return "Unknown"
   return category
+# Example usage:
+incident_description = "target: [DATE_TIME_8c88aff7c1] 11:50 CERT.br: 
+Data de envio: Dec 1, 2023 11:49 AM
+Para: [EMAIL_ADDRESS_f6f7086365], [EMAIL_ADDRESS_a0a85d701e]
+CC: [EMAIL_ADDRESS_83824c64b2]
+Assunto: Alerta: [AS 2716] servidor NTP mal configurado
+"
+category = classify_incident(incident_description)
+print(category)
 ```
-**Explanation of the classification:**
-The function `classify_incident` takes a string as input, which is the incident description. It then uses a `try-except` block to handle potential errors during the classification process.
-*   **`try-except` block:** This block attempts to classify the incident description. If the description is not in the predefined categories, the function returns an error message.
-*   **`category = None`:** Initializes a variable `category` to `None`. This variable will store the category of the incident.
-*   **`if "account compromise" in incident_description:`:** Checks if the input description contains the word "account compromise".
-*   **`category = "account compromise"`:** If the condition is met, the function assigns the category "account compromise" to the variable `category`.
-*   **`elif "malware" in incident_description:`:** Checks if the input description contains the word "malware".
-*   **`category = "malware"`:** If the condition is met, the function assigns the category "malware" to the variable `category`.
-*   **`elif "ransomware" in incident_description:`:** Checks if the input description contains the word "ransomware".
-*   **`category = "ransomware"`:** If the condition is met, the function assigns the category "ransomware" to the variable `category`.
-*   **`elif "trojan horse" in incident_description:`:** Checks if the input description contains the word "trojan horse".
-*   **`category = "trojan horse"`:** If the condition is met, the function assigns the category "trojan horse" to the variable `category`.
-*   **`elif "data leak" in incident_description:`:** Checks if the input description contains the word "data leak".
-*   **`category = "data leak"`:** If the condition is met, the function assigns the category "data leak" to the variable `category`.
-*   **`elif "exposed data" in incident_description:`:** Checks if the input description contains the word "exposed data".
-*   **`category = "exposed data"`:** If the condition is met, the function assigns the category "exposed data" to the variable `category`.
-*   **`elif "database theft" in incident_description:`:** Checks if the input description contains the word "database theft".
-*   **`category = "database theft"`:** If the condition is met, the function assigns the category "database theft" to the variable `category`.
-*   **`category = "database theft"`:** If the condition is met, the function assigns the category "database theft" to the variable `category`.
-*   **`elif "data exfiltration" in incident_description:`:** Checks if the input description contains the word "data exfiltration".
-*   **`category = "data exfiltration"`:** If the condition is met, the function assigns the category "data exfiltration" to the variable `category`.
-*   **`category = "unauthorized disclosure" in incident_description:`:** Checks if the input description contains the word "unauthorized disclosure".
-*   **`category = "unauthorized disclosure"`:** If the condition is met, the function assigns the category "unauthorized disclosure" to the variable `category`.
-*   **`else:`:** If the condition is not met, the function returns an error message.
-*   **`category = "Unknown"`:** If no condition is met, the function returns the "Unknown" category.
-This classification provides a structured way to categorize the incident description based on the provided categories. The function iterates through the description and assigns the appropriate category to each incident. The `try-except` block handles potential errors during the classification process.</t>
+**Explanation:**
+The code defines a function `classify_incident` that takes a string `incident_description` as input. It categorizes the incident based on the provided categories. The function returns a string indicating the category of the incident.
+The code includes a `try...except` block to handle potential errors during the classification process. If an error occurs, the function prints an error message and returns the category string.
+The `classify_incident` function is designed to be flexible and adaptable to different incident descriptions. It can be used to classify various types of incidents, including:
+*   **Account Compromise:** Unauthorized access to user or administrator accounts.
+*   **Malware:** Infection by malicious code.
+*   **Ransomware:** Infection by malicious code.
+*   **Trojan Horse:**  Use of a Trojan horse to gain access.
+*   **Data Leak:** Unauthorized disclosure of sensitive data.
+*   **Database Theft:** Unauthorized theft of data stored in a database.
+*   **Exposure Data:** Unauthorized disclosure of sensitive data.
+*   **Data Exfiltration:** Unauthorized disclosure of sensitive data.
+*   **Unauthorized Disclosure:**  Misuse of resources for non-authorized purposes.
+*   **Scam:**  Fraudulent or negligent actions by internal users.
+*   **Insider Abuse:**  Malicious or negligent actions by internal users.
+*   **Social Engineering:** Deception to gain access or data.
+*   **Physical Incident:** Unauthorized physical access or impact.
+*   **Equipment Theft:** Unauthorized theft of equipment.
+*   **Burglary:** Unauthorized physical access or impact.
+*   **Unauthorized Entry:** Improper changes to systems or data.
+*   **Misuse of Resources:**  Using systems for non-authorized purposes.
+*   **Cryptocurrency Mining:**  Cryptocurrency mining.
+*   **Spam Campaigns:**  Marketing campaigns to generate spam.
+*   **Malware Hosting:**  Hosting malware on a server.
+*   **Third-Party Issues:** Security incidents from suppliers or service providers.
+*   **Supply Chain Compromise:**  Security incidents from suppliers or service providers.
+*   **External Breach:**  Unauthorized physical access or impact.
+*   **Saas Issue:**  Software or services related to the incident.
+The code demonstrates how to classify an incident description based on the provided categories. It includes a clear explanation of the function, arguments, and return value. The example usage shows how to call the function and print the category.
+</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1180,7 +1072,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**CAT1: Account Compromise**
+**Explanation:** The incident describes a successful account compromise, where unauthorized access to a user's account was attempted. The attack was likely initiated by a malicious actor who gained access to the account through phishing or other means. The compromised account was then used to commit fraud, potentially leading to financial losses.
+</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
@@ -1226,12 +1124,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Okay, I understand. I will classify the provided incident description into one of the predefined NIST categories and provide a concise justification for my choice.
-</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
@@ -1300,7 +1193,12 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Okay, I understand. I will classify the provided incident description based on the NIST categories you've provided.
+</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>{'Category': 'Unknown', 'Explanation': 'Unknown'}</t>
